--- a/Projekti1B/1B_Kirjautumislomake_Testauslomake.xlsx
+++ b/Projekti1B/1B_Kirjautumislomake_Testauslomake.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaScript\JS-projektit\Projekti1B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D5F1CF-AB13-4B60-BF11-20B19DD68A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EA5780-5928-433D-8035-4CA3377D33A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F9DC0D36-2DB9-40C6-B722-EBA6FCD195FC}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{F9DC0D36-2DB9-40C6-B722-EBA6FCD195FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF034994-F11E-460A-817C-37B0F769B6E4}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7:Q7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -674,7 +674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="84" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -689,7 +689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -719,7 +719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -734,7 +734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -764,7 +764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -793,18 +793,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1031,14 +1031,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D85D494D-D630-4D39-926C-450CC33C305A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF117D3B-62EA-4FD8-85ED-214EB4DA2E5C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1051,6 +1043,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D85D494D-D630-4D39-926C-450CC33C305A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
